--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_7.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999951808754753</v>
+        <v>0.9999891855673102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.999082279564854</v>
+        <v>0.999095197316253</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999725019236819</v>
+        <v>0.9998637119644217</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999841963054688</v>
+        <v>0.999961547394231</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999884239127012</v>
+        <v>0.9999581131900918</v>
       </c>
       <c r="G2" t="n">
-        <v>4.498441208700969e-06</v>
+        <v>1.009479821721256e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008566517429374332</v>
+        <v>0.0008445935890302633</v>
       </c>
       <c r="I2" t="n">
-        <v>1.440167178613975e-05</v>
+        <v>4.517636730565994e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>2.769811346238378e-06</v>
+        <v>1.079263538179412e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>8.584887204594678e-06</v>
+        <v>2.798455444412371e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001607520535912585</v>
+        <v>0.0001724969303608246</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002120952901103881</v>
+        <v>0.003177231218720564</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000005507570885</v>
+        <v>1.000012359351645</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002211246257081643</v>
+        <v>0.003312492529476819</v>
       </c>
       <c r="P2" t="n">
-        <v>114.6235592385282</v>
+        <v>113.0069805895766</v>
       </c>
       <c r="Q2" t="n">
-        <v>169.4729713575973</v>
+        <v>167.8563927086456</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999952687289323</v>
+        <v>0.9999901768834809</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990821579641769</v>
+        <v>0.9990893621726034</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999699547256817</v>
+        <v>0.9998772289792254</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999828724173468</v>
+        <v>0.9999613449989394</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999873660748514</v>
+        <v>0.999961423913031</v>
       </c>
       <c r="G3" t="n">
-        <v>4.416433862890492e-06</v>
+        <v>9.169448085594726e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008567652518318437</v>
+        <v>0.0008500404394939197</v>
       </c>
       <c r="I3" t="n">
-        <v>1.573572545406736e-05</v>
+        <v>4.069578599086024e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.001840656458215e-06</v>
+        <v>1.084944241845334e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>9.369385315831025e-06</v>
+        <v>2.577266228647516e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001598971378005136</v>
+        <v>0.0001691170740557026</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002101531313802031</v>
+        <v>0.003028109655477279</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000005407166934</v>
+        <v>1.000011226418879</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002190997852600125</v>
+        <v>0.003157022552562077</v>
       </c>
       <c r="P3" t="n">
-        <v>114.6603560117567</v>
+        <v>113.1992669209305</v>
       </c>
       <c r="Q3" t="n">
-        <v>169.5097681308257</v>
+        <v>168.0486790399995</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999953003773525</v>
+        <v>0.9999909969506416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990820000378442</v>
+        <v>0.9990839535912666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999675088487949</v>
+        <v>0.9998887477970013</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999816205173031</v>
+        <v>0.9999608641970346</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999863546649476</v>
+        <v>0.9999641804347102</v>
       </c>
       <c r="G4" t="n">
-        <v>4.386891451812653e-06</v>
+        <v>8.403951387881893e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008569126691312874</v>
+        <v>0.0008550891127625977</v>
       </c>
       <c r="I4" t="n">
-        <v>1.701671383110458e-05</v>
+        <v>3.687756129807176e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>3.221253081744343e-06</v>
+        <v>1.098439087114522e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.011945221818518e-05</v>
+        <v>2.393103168300606e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001591280086977731</v>
+        <v>0.0001660866377917793</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002094490738058455</v>
+        <v>0.002898956948262925</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000005370997311</v>
+        <v>1.000010289199267</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002183657544971144</v>
+        <v>0.003022371547218647</v>
       </c>
       <c r="P4" t="n">
-        <v>114.6737793584673</v>
+        <v>113.3736171188014</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.5231914775363</v>
+        <v>168.2230292378704</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999952934888582</v>
+        <v>0.9999916750098788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990817724448704</v>
+        <v>0.999078957082174</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999652042748614</v>
+        <v>0.999898568445461</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999804613790418</v>
+        <v>0.9999601867355199</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999985407020922</v>
+        <v>0.9999664744689164</v>
       </c>
       <c r="G5" t="n">
-        <v>4.393321558884471e-06</v>
+        <v>7.771012853281809e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008571251171821004</v>
+        <v>0.0008597531346790699</v>
       </c>
       <c r="I5" t="n">
-        <v>1.822369707655883e-05</v>
+        <v>3.362224090175212e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>3.424407749248798e-06</v>
+        <v>1.117453650540574e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>1.082223001003633e-05</v>
+        <v>2.239838870357894e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001583942072786414</v>
+        <v>0.0001633587938862799</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002096025180880342</v>
+        <v>0.002787653646578393</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000005378869876</v>
+        <v>1.000009514274424</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002185257312200693</v>
+        <v>0.002906329833551807</v>
       </c>
       <c r="P5" t="n">
-        <v>114.6708499952669</v>
+        <v>113.5302200954648</v>
       </c>
       <c r="Q5" t="n">
-        <v>169.5202621143359</v>
+        <v>168.3796322145338</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999952592095485</v>
+        <v>0.9999922358933856</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990815524228883</v>
+        <v>0.9990743533464901</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999630678582411</v>
+        <v>0.9999069684807537</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999794074370497</v>
+        <v>0.9999593633730143</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999845273775025</v>
+        <v>0.9999683853546611</v>
       </c>
       <c r="G6" t="n">
-        <v>4.425319789892538e-06</v>
+        <v>7.247452719689058e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008573304980445703</v>
+        <v>0.0008640505198593889</v>
       </c>
       <c r="I6" t="n">
-        <v>1.934261065461389e-05</v>
+        <v>3.083782128520292e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>3.609125346919273e-06</v>
+        <v>1.140563271155721e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.147457819477539e-05</v>
+        <v>2.112172699838006e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001576659322974249</v>
+        <v>0.0001609425540898454</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002103644406712441</v>
+        <v>0.002692109343932571</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00000541804623</v>
+        <v>1.000008873264702</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002193200904250436</v>
+        <v>0.00280671801213838</v>
       </c>
       <c r="P6" t="n">
-        <v>114.6563360264268</v>
+        <v>113.6697209996872</v>
       </c>
       <c r="Q6" t="n">
-        <v>169.5057481454958</v>
+        <v>168.5191331187563</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999952018853862</v>
+        <v>0.9999926998931195</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990813117242431</v>
+        <v>0.9990701216063008</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999610664706773</v>
+        <v>0.9999141614736021</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999978402452299</v>
+        <v>0.9999584410473044</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999836995314397</v>
+        <v>0.9999699764190886</v>
       </c>
       <c r="G7" t="n">
-        <v>4.478829379113798e-06</v>
+        <v>6.814329335314654e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008575551796644492</v>
+        <v>0.0008680006635741134</v>
       </c>
       <c r="I7" t="n">
-        <v>2.039080495291623e-05</v>
+        <v>2.845350863759569e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>3.785262525471351e-06</v>
+        <v>1.166450528707458e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.208851318751726e-05</v>
+        <v>2.005873773782707e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001570779410046024</v>
+        <v>0.0001587776160137427</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002116324497593363</v>
+        <v>0.002610427040795175</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000005483559559</v>
+        <v>1.000008342979292</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002206420812851565</v>
+        <v>0.002721558324250748</v>
       </c>
       <c r="P7" t="n">
-        <v>114.6322976899739</v>
+        <v>113.7929658154738</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.4817098090429</v>
+        <v>168.6423779345429</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999951323998753</v>
+        <v>0.9999930846511208</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990810957742513</v>
+        <v>0.9990662413193308</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999592103430698</v>
+        <v>0.9999203334789337</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999774926601783</v>
+        <v>0.9999574753614959</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999829376585169</v>
+        <v>0.9999713034894273</v>
       </c>
       <c r="G8" t="n">
-        <v>4.543691053474769e-06</v>
+        <v>6.455174630005105e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008577567595026229</v>
+        <v>0.000871622741135785</v>
       </c>
       <c r="I8" t="n">
-        <v>2.136292170346578e-05</v>
+        <v>2.640763000497127e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.944715907309567e-06</v>
+        <v>1.19355479021341e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>1.265352215286178e-05</v>
+        <v>1.917212278129781e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001564787980095631</v>
+        <v>0.0001568452826731398</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002131593547906066</v>
+        <v>0.002540703569880813</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000005562971571</v>
+        <v>1.000007903255862</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002222339898247372</v>
+        <v>0.002648866580832079</v>
       </c>
       <c r="P8" t="n">
-        <v>114.6035417376984</v>
+        <v>113.9012569611677</v>
       </c>
       <c r="Q8" t="n">
-        <v>169.4529538567674</v>
+        <v>168.7506690802368</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999950531278626</v>
+        <v>0.999993403474794</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990808551180959</v>
+        <v>0.9990626947735212</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999574909605883</v>
+        <v>0.9999256296382976</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999976653617873</v>
+        <v>0.99995648558335</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999822305279783</v>
+        <v>0.9999724104356978</v>
       </c>
       <c r="G9" t="n">
-        <v>4.617687997657445e-06</v>
+        <v>6.157566725768978e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008579814014601137</v>
+        <v>0.0008749332859736472</v>
       </c>
       <c r="I9" t="n">
-        <v>2.226342041062409e-05</v>
+        <v>2.465207428275205e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>4.09176942650143e-06</v>
+        <v>1.221335260286117e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>1.317793387814419e-05</v>
+        <v>1.843257259252865e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000155940967945066</v>
+        <v>0.0001550999344486337</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002148880638299263</v>
+        <v>0.002481444483716889</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000005653568157</v>
+        <v>1.00000753888595</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002240362935867817</v>
+        <v>0.002587084712686938</v>
       </c>
       <c r="P9" t="n">
-        <v>114.5712328230734</v>
+        <v>113.9956577410143</v>
       </c>
       <c r="Q9" t="n">
-        <v>169.4206449421424</v>
+        <v>168.8450698600833</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999949681631825</v>
+        <v>0.9999936674647858</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990806219066241</v>
+        <v>0.9990594590807739</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999558881084246</v>
+        <v>0.9999301912344669</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999758950667704</v>
+        <v>0.9999554959143236</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999815748627688</v>
+        <v>0.9999733339576793</v>
       </c>
       <c r="G10" t="n">
-        <v>4.69699879712022e-06</v>
+        <v>5.911143656340246e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008581990941322566</v>
+        <v>0.0008779536631227146</v>
       </c>
       <c r="I10" t="n">
-        <v>2.310288825247948e-05</v>
+        <v>2.314000946227835e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>4.224715773112769e-06</v>
+        <v>1.249112667658535e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>1.36641786448194e-05</v>
+        <v>1.781556806943185e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001554852266089174</v>
+        <v>0.000153557668479206</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002167256052505153</v>
+        <v>0.002431284363528924</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000005750670649</v>
+        <v>1.000007237183102</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002259520629498805</v>
+        <v>0.002534789172336808</v>
       </c>
       <c r="P10" t="n">
-        <v>114.5371736140296</v>
+        <v>114.0773424663924</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.3865857330986</v>
+        <v>168.9267545854615</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999948825622297</v>
+        <v>0.9999938876965808</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990804047460646</v>
+        <v>0.9990565087308494</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999544289887763</v>
+        <v>0.9999341162415408</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999751981017549</v>
+        <v>0.9999545338678041</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999809777866662</v>
+        <v>0.9999741054659517</v>
       </c>
       <c r="G11" t="n">
-        <v>4.776903528996388e-06</v>
+        <v>5.705566942656482e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008584018039822126</v>
+        <v>0.0008807076852717963</v>
       </c>
       <c r="I11" t="n">
-        <v>2.386707851906276e-05</v>
+        <v>2.183895937014308e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>4.34686832446866e-06</v>
+        <v>1.276114783896542e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>1.410697342176571e-05</v>
+        <v>1.730012382099718e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001550450319782835</v>
+        <v>0.0001521526439609738</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002185612849750931</v>
+        <v>0.002388632860582907</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000005848500309</v>
+        <v>1.000006985489622</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002278658913607144</v>
+        <v>0.002490321906609596</v>
       </c>
       <c r="P11" t="n">
-        <v>114.5034360373066</v>
+        <v>114.1481364062723</v>
       </c>
       <c r="Q11" t="n">
-        <v>169.3528481563757</v>
+        <v>168.9975485253413</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999947947622716</v>
+        <v>0.9999940702065927</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990802056451829</v>
+        <v>0.9990538260134653</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999530726588701</v>
+        <v>0.9999375155220505</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999745452746716</v>
+        <v>0.9999535992487449</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999804217141613</v>
+        <v>0.9999747525262075</v>
       </c>
       <c r="G12" t="n">
-        <v>4.858860935941658e-06</v>
+        <v>5.5352018578185e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000858587655915828</v>
+        <v>0.0008832118841922143</v>
       </c>
       <c r="I12" t="n">
-        <v>2.457743432419257e-05</v>
+        <v>2.071217561228955e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>4.461285105870226e-06</v>
+        <v>1.302347083436462e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.45193597150314e-05</v>
+        <v>1.686782322332708e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001546570648881131</v>
+        <v>0.0001508988184711457</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002204282408390916</v>
+        <v>0.002352700970760734</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000005948843118</v>
+        <v>1.000006776906751</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002298123274009748</v>
+        <v>0.002452860321848427</v>
       </c>
       <c r="P12" t="n">
-        <v>114.4694130456854</v>
+        <v>114.2087650462495</v>
       </c>
       <c r="Q12" t="n">
-        <v>169.3188251647544</v>
+        <v>169.0581771653186</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999947098305115</v>
+        <v>0.9999942222311136</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990800055932979</v>
+        <v>0.9990513830231901</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999518372470868</v>
+        <v>0.9999404562113534</v>
       </c>
       <c r="E13" t="n">
-        <v>0.999973971028156</v>
+        <v>0.9999527031996005</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999799171890431</v>
+        <v>0.9999752938182491</v>
       </c>
       <c r="G13" t="n">
-        <v>4.938141005913725e-06</v>
+        <v>5.393293640798969e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00085877439556917</v>
+        <v>0.0008854923083792258</v>
       </c>
       <c r="I13" t="n">
-        <v>2.522446122232609e-05</v>
+        <v>1.973740435288946e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>4.561929579306982e-06</v>
+        <v>1.327496826883536e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>1.489351819537313e-05</v>
+        <v>1.650618631086241e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001542921160937649</v>
+        <v>0.0001497687076793184</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002222192837247417</v>
+        <v>0.00232234658068062</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000006045907987</v>
+        <v>1.000006603164442</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002316796186902368</v>
+        <v>0.002421213682540353</v>
       </c>
       <c r="P13" t="n">
-        <v>114.4370432243618</v>
+        <v>114.2607085891686</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.2864553434308</v>
+        <v>169.1101207082377</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999946291126511</v>
+        <v>0.9999943493151084</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990798246890154</v>
+        <v>0.9990491621160631</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999507164904036</v>
+        <v>0.9999430129186874</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999734452890648</v>
+        <v>0.9999518542204072</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999794620440223</v>
+        <v>0.9999757495018747</v>
       </c>
       <c r="G14" t="n">
-        <v>5.013487585480096e-06</v>
+        <v>5.274666309895615e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008589432617761942</v>
+        <v>0.0008875654276957398</v>
       </c>
       <c r="I14" t="n">
-        <v>2.581143937009028e-05</v>
+        <v>1.888991433570227e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>4.654072470124941e-06</v>
+        <v>1.351325440567029e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>1.523105613582125e-05</v>
+        <v>1.620174433360088e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001539299937698446</v>
+        <v>0.000148758066735393</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002239081862165851</v>
+        <v>0.002296664170029135</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00000613815697</v>
+        <v>1.00000645792559</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002334404212576682</v>
+        <v>0.002394437918497515</v>
       </c>
       <c r="P14" t="n">
-        <v>114.4067575204074</v>
+        <v>114.3051902787813</v>
       </c>
       <c r="Q14" t="n">
-        <v>169.2561696394764</v>
+        <v>169.1546023978503</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999945506306426</v>
+        <v>0.9999944552361933</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990796410291526</v>
+        <v>0.9990471489484976</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999496937359551</v>
+        <v>0.9999452338339174</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999729633289857</v>
+        <v>0.9999510594444033</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999790414397165</v>
+        <v>0.9999761320508221</v>
       </c>
       <c r="G15" t="n">
-        <v>5.086747095501467e-06</v>
+        <v>5.175793626487071e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000859114700196392</v>
+        <v>0.0008894446312503286</v>
       </c>
       <c r="I15" t="n">
-        <v>2.634709043581337e-05</v>
+        <v>1.815373172244674e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>4.738542496620206e-06</v>
+        <v>1.373632713245047e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>1.554297850046437e-05</v>
+        <v>1.594616359422196e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001536291530205952</v>
+        <v>0.0001478510879200501</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002255381807034336</v>
+        <v>0.002275037060464526</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000006227850694</v>
+        <v>1.000006336872922</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002351398079843755</v>
+        <v>0.002371890098104452</v>
       </c>
       <c r="P15" t="n">
-        <v>114.3777440184071</v>
+        <v>114.3430357455913</v>
       </c>
       <c r="Q15" t="n">
-        <v>169.2271561374761</v>
+        <v>169.1924478646604</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999944765468607</v>
+        <v>0.9999945446573026</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990794764298625</v>
+        <v>0.9990453259352918</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999487518675013</v>
+        <v>0.9999471734193366</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999725355683311</v>
+        <v>0.9999503030666292</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999786594287426</v>
+        <v>0.9999764576475267</v>
       </c>
       <c r="G16" t="n">
-        <v>5.155901053975026e-06</v>
+        <v>5.092322946163225e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008592683464085422</v>
+        <v>0.0008911463340567914</v>
       </c>
       <c r="I16" t="n">
-        <v>2.684037877275006e-05</v>
+        <v>1.751080350837249e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>4.813513340435628e-06</v>
+        <v>1.394862248575034e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>1.582627984713458e-05</v>
+        <v>1.57286326166651e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001533617768141334</v>
+        <v>0.0001470230188005181</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002270660928887232</v>
+        <v>0.002256617589704385</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000006312517874</v>
+        <v>1.000006234677368</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002367327665546071</v>
+        <v>0.00235268647234049</v>
       </c>
       <c r="P16" t="n">
-        <v>114.3507373270681</v>
+        <v>114.3755529140344</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.2001494461371</v>
+        <v>169.2249650331034</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999944078106058</v>
+        <v>0.999994618990675</v>
       </c>
       <c r="C17" t="n">
-        <v>0.999079315538683</v>
+        <v>0.9990436725871085</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999479104255685</v>
+        <v>0.9999488693498108</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999721369780306</v>
+        <v>0.9999496081412705</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999783159455421</v>
+        <v>0.9999767294041407</v>
       </c>
       <c r="G17" t="n">
-        <v>5.220063330758458e-06</v>
+        <v>5.02293600586497e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008594185312622829</v>
+        <v>0.0008926896620124054</v>
       </c>
       <c r="I17" t="n">
-        <v>2.728107034708882e-05</v>
+        <v>1.694864133691157e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>4.883371684946141e-06</v>
+        <v>1.414366976184897e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>1.608100879463607e-05</v>
+        <v>1.554707217373743e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001531044288632295</v>
+        <v>0.0001462920697362433</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002284745791277108</v>
+        <v>0.002241190756242085</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000006391073593</v>
+        <v>1.000006149724943</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002382012149687569</v>
+        <v>0.002336602886639753</v>
       </c>
       <c r="P17" t="n">
-        <v>114.3260020476282</v>
+        <v>114.402991866999</v>
       </c>
       <c r="Q17" t="n">
-        <v>169.1754141666973</v>
+        <v>169.252403986068</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999943427879709</v>
+        <v>0.9999946818474119</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990791768851206</v>
+        <v>0.9990421781809287</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999471388681985</v>
+        <v>0.9999503446471117</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999717813641885</v>
+        <v>0.9999489629227124</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999780008120199</v>
+        <v>0.9999769612294227</v>
       </c>
       <c r="G18" t="n">
-        <v>5.280759106236611e-06</v>
+        <v>4.964262001104544e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008595479582766337</v>
+        <v>0.0008940846245843888</v>
       </c>
       <c r="I18" t="n">
-        <v>2.768516101433507e-05</v>
+        <v>1.645961401713573e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>4.945697823473133e-06</v>
+        <v>1.432476564598943e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>1.631471347149815e-05</v>
+        <v>1.539218983156258e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001528918236983826</v>
+        <v>0.0001456284633238487</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00229799023197154</v>
+        <v>0.002228062387166155</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000006465385176</v>
+        <v>1.000006077888672</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002395820433642135</v>
+        <v>0.00232291561571279</v>
       </c>
       <c r="P18" t="n">
-        <v>114.3028814009189</v>
+        <v>114.4264918235522</v>
       </c>
       <c r="Q18" t="n">
-        <v>169.1522935199879</v>
+        <v>169.2759039426213</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999942836162837</v>
+        <v>0.9999947350112749</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990790390678099</v>
+        <v>0.9990408245407566</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999464499488164</v>
+        <v>0.9999516436818927</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999714613542455</v>
+        <v>0.9999483716367439</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999777200061829</v>
+        <v>0.9999771589726124</v>
       </c>
       <c r="G19" t="n">
-        <v>5.335993278886305e-06</v>
+        <v>4.914635868636962e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008596766046866654</v>
+        <v>0.000895348188267122</v>
       </c>
       <c r="I19" t="n">
-        <v>2.804597137477126e-05</v>
+        <v>1.602901369218833e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>5.001783896829205e-06</v>
+        <v>1.449072407032167e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>1.652296055669573e-05</v>
+        <v>1.526007771626191e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001526746945362547</v>
+        <v>0.0001450293650553172</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002309976900076342</v>
+        <v>0.002216897802930249</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000006533009961</v>
+        <v>1.000006017129972</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002408317399023981</v>
+        <v>0.002311275732012086</v>
       </c>
       <c r="P19" t="n">
-        <v>114.2820710178615</v>
+        <v>114.4465857856793</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.1314831369306</v>
+        <v>169.2959979047483</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999942276578425</v>
+        <v>0.9999947796645189</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990789198220965</v>
+        <v>0.9990396004567772</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999458187406214</v>
+        <v>0.9999527893470517</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999711772564746</v>
+        <v>0.9999478157834634</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999774615348712</v>
+        <v>0.9999773260266471</v>
       </c>
       <c r="G20" t="n">
-        <v>5.388228027456482e-06</v>
+        <v>4.872954025417222e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008597879153258491</v>
+        <v>0.0008964908169308019</v>
       </c>
       <c r="I20" t="n">
-        <v>2.837655643635783e-05</v>
+        <v>1.564925188982084e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>5.051575876046879e-06</v>
+        <v>1.464673747076647e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>1.671464424037589e-05</v>
+        <v>1.51484690084765e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001524754878616324</v>
+        <v>0.0001444960759461599</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00232125570057598</v>
+        <v>0.002207476845952687</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000006596962466</v>
+        <v>1.000005966097693</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002420076361411225</v>
+        <v>0.00230145370539192</v>
       </c>
       <c r="P20" t="n">
-        <v>114.2625879579149</v>
+        <v>114.4636204574033</v>
       </c>
       <c r="Q20" t="n">
-        <v>169.112000076984</v>
+        <v>169.3130325764723</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999941764521244</v>
+        <v>0.9999948176207623</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990788050536886</v>
+        <v>0.9990384950810305</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999452426527972</v>
+        <v>0.9999537921396239</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999709096561841</v>
+        <v>0.9999473090768835</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999772279508301</v>
+        <v>0.9999774690684134</v>
       </c>
       <c r="G21" t="n">
-        <v>5.43602631769672e-06</v>
+        <v>4.837523538262271e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008598950465968499</v>
+        <v>0.0008975226366699013</v>
       </c>
       <c r="I21" t="n">
-        <v>2.867827309715347e-05</v>
+        <v>1.531684908294045e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>5.098476448517872e-06</v>
+        <v>1.478895668460598e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>1.688787139343286e-05</v>
+        <v>1.505290288377322e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001523002642539573</v>
+        <v>0.0001440193102953657</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002331528751205251</v>
+        <v>0.002199437095772978</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000006655483286</v>
+        <v>1.000005922719129</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002430786757073931</v>
+        <v>0.002293071686402484</v>
       </c>
       <c r="P21" t="n">
-        <v>114.2449244406307</v>
+        <v>114.4782152676591</v>
       </c>
       <c r="Q21" t="n">
-        <v>169.0943365596998</v>
+        <v>169.3276273867282</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999941296923276</v>
+        <v>0.9999948493920797</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990787001128796</v>
+        <v>0.9990374957032445</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999447303614587</v>
+        <v>0.9999546696111197</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999706771269589</v>
+        <v>0.9999468512317692</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999770184844587</v>
+        <v>0.9999775918328268</v>
       </c>
       <c r="G22" t="n">
-        <v>5.479674535504748e-06</v>
+        <v>4.807866407987665e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008599930042357501</v>
+        <v>0.0008984555119654955</v>
       </c>
       <c r="I22" t="n">
-        <v>2.894657738250694e-05</v>
+        <v>1.502598734715667e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>5.13923034218072e-06</v>
+        <v>1.491746176977118e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>1.704321275567621e-05</v>
+        <v>1.497088404744462e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001521332087076897</v>
+        <v>0.000143593318169457</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002340870465340778</v>
+        <v>0.002192684748883812</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000006708923054</v>
+        <v>1.000005886409052</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002440526167320221</v>
+        <v>0.00228603187812696</v>
       </c>
       <c r="P22" t="n">
-        <v>114.2289297001987</v>
+        <v>114.4905142929554</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.0783418192677</v>
+        <v>169.3399264120244</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999940866206575</v>
+        <v>0.9999948773319692</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990786062491132</v>
+        <v>0.9990365945540074</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999442616095586</v>
+        <v>0.9999554571970571</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999704621218884</v>
+        <v>0.9999464241743549</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999768284371918</v>
+        <v>0.9999776965811553</v>
       </c>
       <c r="G23" t="n">
-        <v>5.519880048891583e-06</v>
+        <v>4.781785747544486e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008600806219415281</v>
+        <v>0.0008992966952224726</v>
       </c>
       <c r="I23" t="n">
-        <v>2.919207859267847e-05</v>
+        <v>1.476492061853137e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>5.176912890552328e-06</v>
+        <v>1.503732555709239e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>1.718415280805065e-05</v>
+        <v>1.490090174725282e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001519903685519455</v>
+        <v>0.0001431986054833741</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002349442497464363</v>
+        <v>0.002186729463729907</v>
       </c>
       <c r="N23" t="n">
-        <v>1.00000675814782</v>
+        <v>1.000005854477749</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00244946312859786</v>
+        <v>0.002279823064154914</v>
       </c>
       <c r="P23" t="n">
-        <v>114.2143088563693</v>
+        <v>114.5013929877498</v>
       </c>
       <c r="Q23" t="n">
-        <v>169.0637209754383</v>
+        <v>169.3508051068188</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999940470144758</v>
+        <v>0.999994900789051</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990785207236083</v>
+        <v>0.9990357809375704</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999438362806318</v>
+        <v>0.9999561441958426</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999702767291596</v>
+        <v>0.9999460318813475</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999766571499793</v>
+        <v>0.9999777858810986</v>
       </c>
       <c r="G24" t="n">
-        <v>5.556850680973686e-06</v>
+        <v>4.759889591429101e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008601604562462493</v>
+        <v>0.0009000561704527771</v>
       </c>
       <c r="I24" t="n">
-        <v>2.941483772447548e-05</v>
+        <v>1.45371962307388e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>5.209405475288103e-06</v>
+        <v>1.514743188947362e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>1.731118030548085e-05</v>
+        <v>1.484124050467375e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001518623958332974</v>
+        <v>0.0001428492488710196</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002357297325534835</v>
+        <v>0.002181717119937665</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000006803412028</v>
+        <v>1.000005827669656</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002457652352961028</v>
+        <v>0.002274597334510455</v>
       </c>
       <c r="P24" t="n">
-        <v>114.2009580689319</v>
+        <v>114.5105721701358</v>
       </c>
       <c r="Q24" t="n">
-        <v>169.0503701880009</v>
+        <v>169.3599842892048</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999940107901878</v>
+        <v>0.9999949207381553</v>
       </c>
       <c r="C25" t="n">
-        <v>0.99907844565198</v>
+        <v>0.9990350464419573</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999434531161738</v>
+        <v>0.9999567590353584</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999701011153189</v>
+        <v>0.9999456873724299</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999764998307968</v>
+        <v>0.9999778644349242</v>
       </c>
       <c r="G25" t="n">
-        <v>5.590664463791662e-06</v>
+        <v>4.74126797821409e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008602305323159406</v>
+        <v>0.0009007417898670343</v>
       </c>
       <c r="I25" t="n">
-        <v>2.961551389905148e-05</v>
+        <v>1.433339099070928e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>5.240184177541606e-06</v>
+        <v>1.52441264842366e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>1.742784903829655e-05</v>
+        <v>1.478875873747294e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001517424887403991</v>
+        <v>0.0001425252139597575</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002364458598451591</v>
+        <v>0.002177445287077058</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000006844811214</v>
+        <v>1.00000580487068</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002465118496091729</v>
+        <v>0.002270143640881058</v>
       </c>
       <c r="P25" t="n">
-        <v>114.1888248227024</v>
+        <v>114.5184119041566</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.0382369417714</v>
+        <v>169.3678240232256</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999939775090007</v>
+        <v>0.9999949379555448</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990783699300473</v>
+        <v>0.9990343836131361</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999431039461134</v>
+        <v>0.9999573080478094</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999699430581186</v>
+        <v>0.9999453585936284</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999763578591609</v>
+        <v>0.9999779316982297</v>
       </c>
       <c r="G26" t="n">
-        <v>5.621730991118537e-06</v>
+        <v>4.725196300847419e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008603012154163002</v>
+        <v>0.0009013605114767318</v>
       </c>
       <c r="I26" t="n">
-        <v>2.979838605888137e-05</v>
+        <v>1.415140591746487e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>5.267885840975638e-06</v>
+        <v>1.533640604905612e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>1.75331359499285e-05</v>
+        <v>1.474382016042048e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001516432267204729</v>
+        <v>0.0001422434230757329</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002371018977384731</v>
+        <v>0.002173751664944139</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000006882846856</v>
+        <v>1.000005785193663</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002471958163937909</v>
+        <v>0.00226629277360709</v>
       </c>
       <c r="P26" t="n">
-        <v>114.1777418718911</v>
+        <v>114.5252029054573</v>
       </c>
       <c r="Q26" t="n">
-        <v>169.0271539909601</v>
+        <v>169.3746150245263</v>
       </c>
     </row>
   </sheetData>
